--- a/Etapa Construcción - Iteración 1/Riesgos Fase Construcción, Iteración 1 - Anexo I - Kairos - NexTech.xlsx
+++ b/Etapa Construcción - Iteración 1/Riesgos Fase Construcción, Iteración 1 - Anexo I - Kairos - NexTech.xlsx
@@ -693,11 +693,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1951403440"/>
-        <c:axId val="1969871572"/>
+        <c:axId val="362576379"/>
+        <c:axId val="2010038191"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="1951403440"/>
+        <c:axId val="362576379"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,10 +749,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1969871572"/>
+        <c:crossAx val="2010038191"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1969871572"/>
+        <c:axId val="2010038191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +827,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1951403440"/>
+        <c:crossAx val="362576379"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>

--- a/Etapa Construcción - Iteración 1/Riesgos Fase Construcción, Iteración 1 - Anexo I - Kairos - NexTech.xlsx
+++ b/Etapa Construcción - Iteración 1/Riesgos Fase Construcción, Iteración 1 - Anexo I - Kairos - NexTech.xlsx
@@ -693,11 +693,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="362576379"/>
-        <c:axId val="2010038191"/>
+        <c:axId val="1020946738"/>
+        <c:axId val="34398904"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="362576379"/>
+        <c:axId val="1020946738"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,10 +749,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2010038191"/>
+        <c:crossAx val="34398904"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2010038191"/>
+        <c:axId val="34398904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +827,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362576379"/>
+        <c:crossAx val="1020946738"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>

--- a/Etapa Construcción - Iteración 1/Riesgos Fase Construcción, Iteración 1 - Anexo I - Kairos - NexTech.xlsx
+++ b/Etapa Construcción - Iteración 1/Riesgos Fase Construcción, Iteración 1 - Anexo I - Kairos - NexTech.xlsx
@@ -693,11 +693,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1020946738"/>
-        <c:axId val="34398904"/>
+        <c:axId val="745321229"/>
+        <c:axId val="2114748053"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="1020946738"/>
+        <c:axId val="745321229"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,10 +749,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34398904"/>
+        <c:crossAx val="2114748053"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34398904"/>
+        <c:axId val="2114748053"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +827,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1020946738"/>
+        <c:crossAx val="745321229"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1079,7 +1079,7 @@
     <xdr:ext cx="1219200" cy="2105025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="UNPA.JPG" id="0" name="image1.jpg"/>
+        <xdr:cNvPr descr="UNPA.JPG" id="0" name="image2.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1107,7 +1107,7 @@
     <xdr:ext cx="1447800" cy="1447800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
